--- a/branches/master/StructureDefinition-transferred-out.xlsx
+++ b/branches/master/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:25:55+00:00</t>
+    <t>2023-03-03T14:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>

--- a/branches/master/StructureDefinition-transferred-out.xlsx
+++ b/branches/master/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:03:01+00:00</t>
+    <t>2023-03-03T14:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferred-out.xlsx
+++ b/branches/master/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:47:25+00:00</t>
+    <t>2023-03-03T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferred-out.xlsx
+++ b/branches/master/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:27:50+00:00</t>
+    <t>2023-03-03T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferred-out.xlsx
+++ b/branches/master/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:14:01+00:00</t>
+    <t>2023-03-04T09:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferred-out.xlsx
+++ b/branches/master/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T09:00:22+00:00</t>
+    <t>2023-03-07T16:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferred-out.xlsx
+++ b/branches/master/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:19:15+00:00</t>
+    <t>2023-03-07T17:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferred-out.xlsx
+++ b/branches/master/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:24:01+00:00</t>
+    <t>2023-03-08T15:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferred-out.xlsx
+++ b/branches/master/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:26+00:00</t>
+    <t>2023-04-04T11:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
